--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewlvac-my.sharepoint.com/personal/a_yekeen_wlv_ac_uk/Documents/Documents/Level 5/Collaborative Development/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC1048E379DD5B6A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EC05E53-B57E-41D2-865A-995A3D439D23}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>Abass Yekeen</t>
   </si>
@@ -60,14 +54,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,18 +93,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -153,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -365,214 +410,274 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="1">
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3">
         <v>45684</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="3">
         <v>45691</v>
       </c>
-      <c r="E1" s="1">
+      <c r="D1" s="3">
         <v>45698</v>
       </c>
-      <c r="F1" s="1">
+      <c r="E1" s="3">
         <v>45705</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F1" s="3">
         <v>45712</v>
       </c>
-      <c r="H1" s="1">
+      <c r="G1" s="3">
         <v>45719</v>
       </c>
-      <c r="I1" s="1">
+      <c r="H1" s="3">
         <v>45726</v>
       </c>
-      <c r="J1" s="1">
+      <c r="I1" s="3">
         <v>45733</v>
       </c>
-      <c r="K1" s="1">
+      <c r="J1" s="3">
         <v>45740</v>
       </c>
-      <c r="L1" s="1">
+      <c r="K1" s="3">
         <v>45747</v>
       </c>
-      <c r="M1" s="1">
+      <c r="L1" s="3">
         <v>45754</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:L9">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B2="O"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B2="X"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2245043\Desktop\MorningFLow--main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B98AC1-0C57-4470-A232-A1B80233D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
   <si>
     <t>Abass Yekeen</t>
   </si>
@@ -54,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,14 +137,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -410,27 +416,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>45684</v>
@@ -466,7 +472,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,14 +491,16 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -509,14 +517,16 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -535,14 +545,16 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -561,14 +573,16 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -585,14 +599,16 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -611,14 +627,16 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -637,14 +655,16 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,7 +681,9 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -670,11 +692,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:L9">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B2="X"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>B2="O"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>B2="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2245043\Desktop\MorningFLow--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2349473\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B98AC1-0C57-4470-A232-A1B80233D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82C8A8-FCC3-4F81-9E27-6F59AF5A5C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
   <si>
     <t>Abass Yekeen</t>
   </si>
@@ -427,7 +427,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,9 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -520,7 +522,9 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -548,7 +552,9 @@
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -576,7 +582,9 @@
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -602,7 +610,9 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -630,7 +640,9 @@
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -658,7 +670,9 @@
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -684,7 +698,9 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2349473\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82C8A8-FCC3-4F81-9E27-6F59AF5A5C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69455A-1BC0-4A96-9061-579A79435B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>Abass Yekeen</t>
   </si>
@@ -51,17 +51,20 @@
     <t>Forhad Hussain</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +82,24 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -118,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -127,6 +148,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -427,7 +457,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,28 +506,30 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -506,26 +538,30 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -534,28 +570,30 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -564,28 +602,30 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -594,26 +634,30 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -622,28 +666,30 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -652,28 +698,30 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -682,26 +730,30 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2349473\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69455A-1BC0-4A96-9061-579A79435B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="11">
   <si>
     <t>Abass Yekeen</t>
   </si>
@@ -63,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,7 +157,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -446,27 +482,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>45684</v>
@@ -502,7 +538,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,11 +566,17 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -562,11 +604,17 @@
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,11 +642,17 @@
       <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,11 +680,17 @@
       <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -658,11 +718,17 @@
       <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -690,11 +756,17 @@
       <c r="I7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -722,11 +794,17 @@
       <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -754,16 +832,22 @@
       <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:L9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>B2="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B2="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA3A01-6CCD-4A8D-823C-06B72D38B98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -57,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,49 +163,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -482,27 +446,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3">
         <v>45684</v>
@@ -538,14 +502,14 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -576,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -614,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -652,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -680,17 +644,17 @@
       <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>8</v>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -766,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -804,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -844,10 +808,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:L9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>B2="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>B2="O"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA3A01-6CCD-4A8D-823C-06B72D38B98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A424C13-BBF7-4A0F-8D76-69FA95DBDBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
